--- a/Original Excel Files/P.xlsx
+++ b/Original Excel Files/P.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C44CEF3-8661-4274-B614-79B64D9E3CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="30585" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -476,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,6 +508,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,6 +530,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -564,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,9 +614,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,6 +666,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -807,728 +858,743 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G15"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1987</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="13"/>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1987</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1964</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1987</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>108</v>
+      <c r="A7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
+      <c r="A10" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="C10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1984</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1">
-        <v>1975</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8">
-        <v>1975</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1967</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10"/>
+      <c r="A13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="19">
+        <v>1995</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="8">
+        <v>1995</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+      <c r="F16" s="8">
+        <v>2006</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1987</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="20">
+        <v>1987</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
       <c r="A26" s="14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1964</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1972</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1987</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>60</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1975</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1975</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A33" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="15">
-        <v>1984</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="A33" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="15">
-        <v>1967</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>101</v>
+      <c r="A34" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" t="s">
-        <v>65</v>
+      <c r="A36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1">
-        <v>1995</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8">
-        <v>1995</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="8">
-        <v>2006</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1">
-        <v>2006</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="409.6">
-      <c r="A44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="409.6">
-      <c r="A46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="409.6">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="15">
-        <v>1972</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I60">
+    <sortCondition ref="A1:A60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1540,7 +1606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
